--- a/result/Mc_phi_all_Mc.xlsx
+++ b/result/Mc_phi_all_Mc.xlsx
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.001341376259542075</v>
+        <v>-0.001341376259542077</v>
       </c>
     </row>
     <row r="131">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.02896505514147578</v>
       </c>
     </row>
     <row r="741">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.02896505514147578</v>
       </c>
     </row>
     <row r="837">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B1028" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.02896505514147578</v>
       </c>
     </row>
     <row r="1029">

--- a/result/Mc_phi_all_Mc.xlsx
+++ b/result/Mc_phi_all_Mc.xlsx
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-0.009133656326877944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-0.001341376259542077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="402">
@@ -4452,7 +4452,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="403">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="404">
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="405">
@@ -4482,7 +4482,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="406">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="408">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="B408" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="409">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="411">
@@ -4542,7 +4542,7 @@
         </is>
       </c>
       <c r="B411" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="412">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="413">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="B413" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="414">
@@ -4572,7 +4572,7 @@
         </is>
       </c>
       <c r="B414" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="415">
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="B415" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="416">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>-0.05580000000000006</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>0.06078991968549653</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0.06078991968549653</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="419">
@@ -4622,7 +4622,7 @@
         </is>
       </c>
       <c r="B419" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="420">
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="B420" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="421">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="B421" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="422">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.04301075268817268</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.04301075268817268</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.04301075268817268</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.04301075268817268</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="429">
@@ -4722,7 +4722,7 @@
         </is>
       </c>
       <c r="B429" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="430">
@@ -4732,7 +4732,7 @@
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="431">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="432">
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="433">
@@ -4762,7 +4762,7 @@
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="434">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="B434" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="435">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="437">
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="438">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="441">
@@ -4842,7 +4842,7 @@
         </is>
       </c>
       <c r="B441" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="442">
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="443">
@@ -4862,7 +4862,7 @@
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="444">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="445">
@@ -4882,7 +4882,7 @@
         </is>
       </c>
       <c r="B445" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="446">
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="B446" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="447">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.0430107526881722</v>
       </c>
     </row>
     <row r="449">
@@ -4922,7 +4922,7 @@
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.04301075268817076</v>
       </c>
     </row>
     <row r="450">
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0.1075268817204302</v>
+        <v>0.01718045068246339</v>
       </c>
     </row>
     <row r="451">
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B451" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.5548529887230668</v>
       </c>
     </row>
     <row r="452">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="453">
@@ -4962,7 +4962,7 @@
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0.1075268817204302</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="454">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="455">
@@ -4982,7 +4982,7 @@
         </is>
       </c>
       <c r="B455" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="456">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="461">
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="B461" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="462">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="464">
@@ -5072,7 +5072,7 @@
         </is>
       </c>
       <c r="B464" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="465">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="467">
@@ -5102,7 +5102,7 @@
         </is>
       </c>
       <c r="B467" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="468">
@@ -5112,7 +5112,7 @@
         </is>
       </c>
       <c r="B468" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="469">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="471">
@@ -5142,7 +5142,7 @@
         </is>
       </c>
       <c r="B471" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="472">
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="B472" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="473">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="477">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="478">
@@ -5212,7 +5212,7 @@
         </is>
       </c>
       <c r="B478" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="479">
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B479" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="480">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="481">
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="B481" t="n">
-        <v>-0.0558</v>
+        <v>-0.6324000000000001</v>
       </c>
     </row>
     <row r="482">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0.0558</v>
+        <v>0.6324000000000001</v>
       </c>
     </row>
     <row r="483">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>-0.1165899196854966</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
@@ -5582,7 +5582,7 @@
         </is>
       </c>
       <c r="B515" t="n">
-        <v>-0.04673696203493368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>0</v>
+        <v>-0.6754107526881727</v>
       </c>
     </row>
     <row r="520">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>-0.02583030200570737</v>
       </c>
     </row>
     <row r="643">
@@ -6862,7 +6862,7 @@
         </is>
       </c>
       <c r="B643" t="n">
-        <v>0</v>
+        <v>-0.5720334394055302</v>
       </c>
     </row>
     <row r="644">
@@ -6872,7 +6872,7 @@
         </is>
       </c>
       <c r="B644" t="n">
-        <v>0</v>
+        <v>-0.07754701127693331</v>
       </c>
     </row>
     <row r="645">
@@ -6892,7 +6892,7 @@
         </is>
       </c>
       <c r="B646" t="n">
-        <v>-0.1633268817204302</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="676">
@@ -7192,7 +7192,7 @@
         </is>
       </c>
       <c r="B676" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="677">
@@ -7202,7 +7202,7 @@
         </is>
       </c>
       <c r="B677" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="678">
@@ -7212,7 +7212,7 @@
         </is>
       </c>
       <c r="B678" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="679">
@@ -7222,7 +7222,7 @@
         </is>
       </c>
       <c r="B679" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="680">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="681">
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B681" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="682">
@@ -7252,7 +7252,7 @@
         </is>
       </c>
       <c r="B682" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="683">
@@ -7262,7 +7262,7 @@
         </is>
       </c>
       <c r="B683" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="684">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="686">
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="B686" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="687">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="688">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="695">
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="B695" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="696">
@@ -7392,7 +7392,7 @@
         </is>
       </c>
       <c r="B696" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="697">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="698">
@@ -7412,7 +7412,7 @@
         </is>
       </c>
       <c r="B698" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="699">
@@ -7422,7 +7422,7 @@
         </is>
       </c>
       <c r="B699" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="700">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="704">
@@ -7472,7 +7472,7 @@
         </is>
       </c>
       <c r="B704" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="705">
@@ -7482,7 +7482,7 @@
         </is>
       </c>
       <c r="B705" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="706">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>0.01913365632687794</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="707">
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="B707" t="n">
-        <v>0.01134137625954208</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="708">
@@ -7512,7 +7512,7 @@
         </is>
       </c>
       <c r="B708" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="709">
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="B709" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="710">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.01299431846885393</v>
       </c>
     </row>
     <row r="713">
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03509045377237727</v>
       </c>
     </row>
     <row r="714">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000015</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.01000000000000001</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03999999999999992</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000026</v>
       </c>
     </row>
     <row r="719">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="720">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="B720" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="721">
@@ -7642,7 +7642,7 @@
         </is>
       </c>
       <c r="B721" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="722">
@@ -7652,7 +7652,7 @@
         </is>
       </c>
       <c r="B722" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="723">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="724">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="725">
@@ -7682,7 +7682,7 @@
         </is>
       </c>
       <c r="B725" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="726">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000015</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="730">
@@ -7732,7 +7732,7 @@
         </is>
       </c>
       <c r="B730" t="n">
-        <v>0.03000000000000014</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="731">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="733">
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="B733" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="734">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03833689902946875</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000005</v>
       </c>
     </row>
     <row r="736">
@@ -7792,7 +7792,7 @@
         </is>
       </c>
       <c r="B736" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="737">
@@ -7802,7 +7802,7 @@
         </is>
       </c>
       <c r="B737" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="738">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.0399999999999997</v>
       </c>
     </row>
     <row r="739">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03399445478367274</v>
       </c>
     </row>
     <row r="740">
@@ -7832,7 +7832,7 @@
         </is>
       </c>
       <c r="B740" t="n">
-        <v>0.02896505514147578</v>
+        <v>-0.09900331987811303</v>
       </c>
     </row>
     <row r="741">
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B741" t="n">
-        <v>0.03000000000000003</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="742">
@@ -7852,7 +7852,7 @@
         </is>
       </c>
       <c r="B742" t="n">
-        <v>0.02804546506665834</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="743">
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="B743" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="744">
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="B744" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="745">
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B745" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="746">
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="B746" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="747">
@@ -7902,7 +7902,7 @@
         </is>
       </c>
       <c r="B747" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="748">
@@ -7912,7 +7912,7 @@
         </is>
       </c>
       <c r="B748" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="749">
@@ -7922,7 +7922,7 @@
         </is>
       </c>
       <c r="B749" t="n">
-        <v>-0.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="750">
@@ -7932,7 +7932,7 @@
         </is>
       </c>
       <c r="B750" t="n">
-        <v>-0.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="751">
@@ -7942,7 +7942,7 @@
         </is>
       </c>
       <c r="B751" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="752">
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="B752" t="n">
-        <v>-0.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="753">
@@ -7962,7 +7962,7 @@
         </is>
       </c>
       <c r="B753" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="754">
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="B754" t="n">
-        <v>-0.02</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="755">
@@ -7982,7 +7982,7 @@
         </is>
       </c>
       <c r="B755" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="756">
@@ -7992,7 +7992,7 @@
         </is>
       </c>
       <c r="B756" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="757">
@@ -8002,7 +8002,7 @@
         </is>
       </c>
       <c r="B757" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="758">
@@ -8012,7 +8012,7 @@
         </is>
       </c>
       <c r="B758" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="759">
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B759" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="760">
@@ -8032,7 +8032,7 @@
         </is>
       </c>
       <c r="B760" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="761">
@@ -8042,7 +8042,7 @@
         </is>
       </c>
       <c r="B761" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="762">
@@ -8052,7 +8052,7 @@
         </is>
       </c>
       <c r="B762" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="763">
@@ -8062,7 +8062,7 @@
         </is>
       </c>
       <c r="B763" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="764">
@@ -8072,7 +8072,7 @@
         </is>
       </c>
       <c r="B764" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="765">
@@ -8082,7 +8082,7 @@
         </is>
       </c>
       <c r="B765" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="766">
@@ -8092,7 +8092,7 @@
         </is>
       </c>
       <c r="B766" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="767">
@@ -8102,7 +8102,7 @@
         </is>
       </c>
       <c r="B767" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="768">
@@ -8112,7 +8112,7 @@
         </is>
       </c>
       <c r="B768" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="769">
@@ -8122,7 +8122,7 @@
         </is>
       </c>
       <c r="B769" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="770">
@@ -8132,7 +8132,7 @@
         </is>
       </c>
       <c r="B770" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="771">
@@ -8142,7 +8142,7 @@
         </is>
       </c>
       <c r="B771" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="772">
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="B772" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="773">
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B773" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="774">
@@ -8172,7 +8172,7 @@
         </is>
       </c>
       <c r="B774" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="775">
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B775" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="776">
@@ -8192,7 +8192,7 @@
         </is>
       </c>
       <c r="B776" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="777">
@@ -8202,7 +8202,7 @@
         </is>
       </c>
       <c r="B777" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="778">
@@ -8212,7 +8212,7 @@
         </is>
       </c>
       <c r="B778" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="779">
@@ -8222,7 +8222,7 @@
         </is>
       </c>
       <c r="B779" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="780">
@@ -8232,7 +8232,7 @@
         </is>
       </c>
       <c r="B780" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="781">
@@ -8242,7 +8242,7 @@
         </is>
       </c>
       <c r="B781" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="782">
@@ -8252,7 +8252,7 @@
         </is>
       </c>
       <c r="B782" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="783">
@@ -8262,7 +8262,7 @@
         </is>
       </c>
       <c r="B783" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="784">
@@ -8272,7 +8272,7 @@
         </is>
       </c>
       <c r="B784" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="785">
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="B785" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="786">
@@ -8292,7 +8292,7 @@
         </is>
       </c>
       <c r="B786" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="787">
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B787" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="788">
@@ -8312,7 +8312,7 @@
         </is>
       </c>
       <c r="B788" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="789">
@@ -8322,7 +8322,7 @@
         </is>
       </c>
       <c r="B789" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="790">
@@ -8332,7 +8332,7 @@
         </is>
       </c>
       <c r="B790" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="791">
@@ -8342,7 +8342,7 @@
         </is>
       </c>
       <c r="B791" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="792">
@@ -8352,7 +8352,7 @@
         </is>
       </c>
       <c r="B792" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="793">
@@ -8362,7 +8362,7 @@
         </is>
       </c>
       <c r="B793" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="794">
@@ -8372,7 +8372,7 @@
         </is>
       </c>
       <c r="B794" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="795">
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="B795" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="796">
@@ -8392,7 +8392,7 @@
         </is>
       </c>
       <c r="B796" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="797">
@@ -8402,7 +8402,7 @@
         </is>
       </c>
       <c r="B797" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="798">
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="B798" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="799">
@@ -8422,7 +8422,7 @@
         </is>
       </c>
       <c r="B799" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="800">
@@ -8432,7 +8432,7 @@
         </is>
       </c>
       <c r="B800" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="801">
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B801" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="802">
@@ -8452,7 +8452,7 @@
         </is>
       </c>
       <c r="B802" t="n">
-        <v>-0.01913365632687794</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="803">
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="B803" t="n">
-        <v>-0.01134137625954208</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="804">
@@ -8472,7 +8472,7 @@
         </is>
       </c>
       <c r="B804" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="805">
@@ -8482,7 +8482,7 @@
         </is>
       </c>
       <c r="B805" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="806">
@@ -8492,7 +8492,7 @@
         </is>
       </c>
       <c r="B806" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="807">
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="B807" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="808">
@@ -8512,7 +8512,7 @@
         </is>
       </c>
       <c r="B808" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.01299431846885393</v>
       </c>
     </row>
     <row r="809">
@@ -8522,7 +8522,7 @@
         </is>
       </c>
       <c r="B809" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03509045377237727</v>
       </c>
     </row>
     <row r="810">
@@ -8532,7 +8532,7 @@
         </is>
       </c>
       <c r="B810" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="811">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="B811" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="812">
@@ -8552,7 +8552,7 @@
         </is>
       </c>
       <c r="B812" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03999999999999992</v>
       </c>
     </row>
     <row r="813">
@@ -8562,7 +8562,7 @@
         </is>
       </c>
       <c r="B813" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="814">
@@ -8572,7 +8572,7 @@
         </is>
       </c>
       <c r="B814" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000026</v>
       </c>
     </row>
     <row r="815">
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B815" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="816">
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B816" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="817">
@@ -8602,7 +8602,7 @@
         </is>
       </c>
       <c r="B817" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="818">
@@ -8612,7 +8612,7 @@
         </is>
       </c>
       <c r="B818" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="819">
@@ -8622,7 +8622,7 @@
         </is>
       </c>
       <c r="B819" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="820">
@@ -8632,7 +8632,7 @@
         </is>
       </c>
       <c r="B820" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="821">
@@ -8642,7 +8642,7 @@
         </is>
       </c>
       <c r="B821" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="822">
@@ -8652,7 +8652,7 @@
         </is>
       </c>
       <c r="B822" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="823">
@@ -8662,7 +8662,7 @@
         </is>
       </c>
       <c r="B823" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="824">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="B824" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="825">
@@ -8682,7 +8682,7 @@
         </is>
       </c>
       <c r="B825" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="826">
@@ -8692,7 +8692,7 @@
         </is>
       </c>
       <c r="B826" t="n">
-        <v>-0.03000000000000014</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="827">
@@ -8702,7 +8702,7 @@
         </is>
       </c>
       <c r="B827" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="828">
@@ -8712,7 +8712,7 @@
         </is>
       </c>
       <c r="B828" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="829">
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B829" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="830">
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="B830" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03833689902946875</v>
       </c>
     </row>
     <row r="831">
@@ -8742,7 +8742,7 @@
         </is>
       </c>
       <c r="B831" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000005</v>
       </c>
     </row>
     <row r="832">
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="B832" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="833">
@@ -8762,7 +8762,7 @@
         </is>
       </c>
       <c r="B833" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="834">
@@ -8772,7 +8772,7 @@
         </is>
       </c>
       <c r="B834" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.0399999999999997</v>
       </c>
     </row>
     <row r="835">
@@ -8782,7 +8782,7 @@
         </is>
       </c>
       <c r="B835" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03399445478367274</v>
       </c>
     </row>
     <row r="836">
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="B836" t="n">
-        <v>-0.02896505514147578</v>
+        <v>0.09900331987811303</v>
       </c>
     </row>
     <row r="837">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="B837" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="838">
@@ -8812,7 +8812,7 @@
         </is>
       </c>
       <c r="B838" t="n">
-        <v>-0.02804546506665834</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="839">
@@ -8822,7 +8822,7 @@
         </is>
       </c>
       <c r="B839" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="840">
@@ -8832,7 +8832,7 @@
         </is>
       </c>
       <c r="B840" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="841">
@@ -8842,7 +8842,7 @@
         </is>
       </c>
       <c r="B841" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="842">
@@ -8852,7 +8852,7 @@
         </is>
       </c>
       <c r="B842" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="843">
@@ -8862,7 +8862,7 @@
         </is>
       </c>
       <c r="B843" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="844">
@@ -8872,7 +8872,7 @@
         </is>
       </c>
       <c r="B844" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="845">
@@ -8882,7 +8882,7 @@
         </is>
       </c>
       <c r="B845" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="846">
@@ -8892,7 +8892,7 @@
         </is>
       </c>
       <c r="B846" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="847">
@@ -8902,7 +8902,7 @@
         </is>
       </c>
       <c r="B847" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="848">
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B848" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="849">
@@ -8922,7 +8922,7 @@
         </is>
       </c>
       <c r="B849" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="850">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="B850" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="851">
@@ -8942,7 +8942,7 @@
         </is>
       </c>
       <c r="B851" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="852">
@@ -8952,7 +8952,7 @@
         </is>
       </c>
       <c r="B852" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="853">
@@ -8962,7 +8962,7 @@
         </is>
       </c>
       <c r="B853" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="854">
@@ -8972,7 +8972,7 @@
         </is>
       </c>
       <c r="B854" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="855">
@@ -8982,7 +8982,7 @@
         </is>
       </c>
       <c r="B855" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="856">
@@ -8992,7 +8992,7 @@
         </is>
       </c>
       <c r="B856" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="857">
@@ -9002,7 +9002,7 @@
         </is>
       </c>
       <c r="B857" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="858">
@@ -9012,7 +9012,7 @@
         </is>
       </c>
       <c r="B858" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="859">
@@ -9022,7 +9022,7 @@
         </is>
       </c>
       <c r="B859" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="860">
@@ -9032,7 +9032,7 @@
         </is>
       </c>
       <c r="B860" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="861">
@@ -9042,7 +9042,7 @@
         </is>
       </c>
       <c r="B861" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="862">
@@ -9052,7 +9052,7 @@
         </is>
       </c>
       <c r="B862" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="863">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="B863" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="864">
@@ -9072,7 +9072,7 @@
         </is>
       </c>
       <c r="B864" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="865">
@@ -9082,7 +9082,7 @@
         </is>
       </c>
       <c r="B865" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="866">
@@ -9092,7 +9092,7 @@
         </is>
       </c>
       <c r="B866" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="867">
@@ -9102,7 +9102,7 @@
         </is>
       </c>
       <c r="B867" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="868">
@@ -9112,7 +9112,7 @@
         </is>
       </c>
       <c r="B868" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="869">
@@ -9122,7 +9122,7 @@
         </is>
       </c>
       <c r="B869" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="870">
@@ -9132,7 +9132,7 @@
         </is>
       </c>
       <c r="B870" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="871">
@@ -9142,7 +9142,7 @@
         </is>
       </c>
       <c r="B871" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="872">
@@ -9152,7 +9152,7 @@
         </is>
       </c>
       <c r="B872" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="873">
@@ -9162,7 +9162,7 @@
         </is>
       </c>
       <c r="B873" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="874">
@@ -9172,7 +9172,7 @@
         </is>
       </c>
       <c r="B874" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="875">
@@ -9182,7 +9182,7 @@
         </is>
       </c>
       <c r="B875" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="876">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="B876" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="877">
@@ -9202,7 +9202,7 @@
         </is>
       </c>
       <c r="B877" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="878">
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="B878" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="879">
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="B879" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="880">
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="B880" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="881">
@@ -9242,7 +9242,7 @@
         </is>
       </c>
       <c r="B881" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="882">
@@ -9252,7 +9252,7 @@
         </is>
       </c>
       <c r="B882" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="883">
@@ -9262,7 +9262,7 @@
         </is>
       </c>
       <c r="B883" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="884">
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="B884" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="885">
@@ -9282,7 +9282,7 @@
         </is>
       </c>
       <c r="B885" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="886">
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="B886" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="887">
@@ -9302,7 +9302,7 @@
         </is>
       </c>
       <c r="B887" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="888">
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="B888" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="889">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="B889" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="890">
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="B890" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="891">
@@ -9342,7 +9342,7 @@
         </is>
       </c>
       <c r="B891" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="892">
@@ -9352,7 +9352,7 @@
         </is>
       </c>
       <c r="B892" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="893">
@@ -9362,7 +9362,7 @@
         </is>
       </c>
       <c r="B893" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="894">
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B894" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="895">
@@ -9382,7 +9382,7 @@
         </is>
       </c>
       <c r="B895" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="896">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="B941" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="942">
@@ -9852,7 +9852,7 @@
         </is>
       </c>
       <c r="B942" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="943">
@@ -9862,7 +9862,7 @@
         </is>
       </c>
       <c r="B943" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="944">
@@ -9872,7 +9872,7 @@
         </is>
       </c>
       <c r="B944" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="945">
@@ -9882,7 +9882,7 @@
         </is>
       </c>
       <c r="B945" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="946">
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="B946" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="947">
@@ -9902,7 +9902,7 @@
         </is>
       </c>
       <c r="B947" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="948">
@@ -9912,7 +9912,7 @@
         </is>
       </c>
       <c r="B948" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="949">
@@ -9922,7 +9922,7 @@
         </is>
       </c>
       <c r="B949" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="950">
@@ -9932,7 +9932,7 @@
         </is>
       </c>
       <c r="B950" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="951">
@@ -9942,7 +9942,7 @@
         </is>
       </c>
       <c r="B951" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="952">
@@ -9952,7 +9952,7 @@
         </is>
       </c>
       <c r="B952" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="953">
@@ -9962,7 +9962,7 @@
         </is>
       </c>
       <c r="B953" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="954">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="B954" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="955">
@@ -9982,7 +9982,7 @@
         </is>
       </c>
       <c r="B955" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="956">
@@ -9992,7 +9992,7 @@
         </is>
       </c>
       <c r="B956" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="957">
@@ -10002,7 +10002,7 @@
         </is>
       </c>
       <c r="B957" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="958">
@@ -10012,7 +10012,7 @@
         </is>
       </c>
       <c r="B958" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="959">
@@ -10022,7 +10022,7 @@
         </is>
       </c>
       <c r="B959" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="960">
@@ -10032,7 +10032,7 @@
         </is>
       </c>
       <c r="B960" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="961">
@@ -10042,7 +10042,7 @@
         </is>
       </c>
       <c r="B961" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="962">
@@ -10052,7 +10052,7 @@
         </is>
       </c>
       <c r="B962" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="963">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B963" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="964">
@@ -10072,7 +10072,7 @@
         </is>
       </c>
       <c r="B964" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="965">
@@ -10082,7 +10082,7 @@
         </is>
       </c>
       <c r="B965" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="966">
@@ -10092,7 +10092,7 @@
         </is>
       </c>
       <c r="B966" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="967">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="B967" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="968">
@@ -10112,7 +10112,7 @@
         </is>
       </c>
       <c r="B968" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="969">
@@ -10122,7 +10122,7 @@
         </is>
       </c>
       <c r="B969" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="970">
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="B970" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="971">
@@ -10142,7 +10142,7 @@
         </is>
       </c>
       <c r="B971" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="972">
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="B972" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="973">
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="B973" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="974">
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="B974" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="975">
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="B975" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="976">
@@ -10192,7 +10192,7 @@
         </is>
       </c>
       <c r="B976" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="977">
@@ -10202,7 +10202,7 @@
         </is>
       </c>
       <c r="B977" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="978">
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="B978" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="979">
@@ -10222,7 +10222,7 @@
         </is>
       </c>
       <c r="B979" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="980">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="B980" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="981">
@@ -10242,7 +10242,7 @@
         </is>
       </c>
       <c r="B981" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="982">
@@ -10252,7 +10252,7 @@
         </is>
       </c>
       <c r="B982" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="983">
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="B983" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="984">
@@ -10272,7 +10272,7 @@
         </is>
       </c>
       <c r="B984" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="985">
@@ -10282,7 +10282,7 @@
         </is>
       </c>
       <c r="B985" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="986">
@@ -10292,7 +10292,7 @@
         </is>
       </c>
       <c r="B986" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="987">
@@ -10302,7 +10302,7 @@
         </is>
       </c>
       <c r="B987" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="988">
@@ -10312,7 +10312,7 @@
         </is>
       </c>
       <c r="B988" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="989">
@@ -10322,7 +10322,7 @@
         </is>
       </c>
       <c r="B989" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="990">
@@ -10332,7 +10332,7 @@
         </is>
       </c>
       <c r="B990" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="991">
@@ -10342,7 +10342,7 @@
         </is>
       </c>
       <c r="B991" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="992">
@@ -10352,7 +10352,7 @@
         </is>
       </c>
       <c r="B992" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="993">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="B993" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="994">
@@ -10372,7 +10372,7 @@
         </is>
       </c>
       <c r="B994" t="n">
-        <v>-0.01913365632687794</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="995">
@@ -10382,7 +10382,7 @@
         </is>
       </c>
       <c r="B995" t="n">
-        <v>-0.01134137625954208</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="996">
@@ -10392,7 +10392,7 @@
         </is>
       </c>
       <c r="B996" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="997">
@@ -10402,7 +10402,7 @@
         </is>
       </c>
       <c r="B997" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="998">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="B998" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="999">
@@ -10422,7 +10422,7 @@
         </is>
       </c>
       <c r="B999" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1000">
@@ -10432,7 +10432,7 @@
         </is>
       </c>
       <c r="B1000" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.01299431846885393</v>
       </c>
     </row>
     <row r="1001">
@@ -10442,7 +10442,7 @@
         </is>
       </c>
       <c r="B1001" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03509045377237727</v>
       </c>
     </row>
     <row r="1002">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="B1002" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="1003">
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="B1003" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
     </row>
     <row r="1004">
@@ -10472,7 +10472,7 @@
         </is>
       </c>
       <c r="B1004" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03999999999999992</v>
       </c>
     </row>
     <row r="1005">
@@ -10482,7 +10482,7 @@
         </is>
       </c>
       <c r="B1005" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="1006">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="B1006" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000026</v>
       </c>
     </row>
     <row r="1007">
@@ -10502,7 +10502,7 @@
         </is>
       </c>
       <c r="B1007" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1008">
@@ -10512,7 +10512,7 @@
         </is>
       </c>
       <c r="B1008" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="1009">
@@ -10522,7 +10522,7 @@
         </is>
       </c>
       <c r="B1009" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1010">
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="B1010" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1011">
@@ -10542,7 +10542,7 @@
         </is>
       </c>
       <c r="B1011" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1012">
@@ -10552,7 +10552,7 @@
         </is>
       </c>
       <c r="B1012" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1013">
@@ -10562,7 +10562,7 @@
         </is>
       </c>
       <c r="B1013" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1014">
@@ -10572,7 +10572,7 @@
         </is>
       </c>
       <c r="B1014" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="1015">
@@ -10582,7 +10582,7 @@
         </is>
       </c>
       <c r="B1015" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1016">
@@ -10592,7 +10592,7 @@
         </is>
       </c>
       <c r="B1016" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1017">
@@ -10602,7 +10602,7 @@
         </is>
       </c>
       <c r="B1017" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1018">
@@ -10612,7 +10612,7 @@
         </is>
       </c>
       <c r="B1018" t="n">
-        <v>-0.03000000000000014</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1019">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="B1019" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1020">
@@ -10632,7 +10632,7 @@
         </is>
       </c>
       <c r="B1020" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1021">
@@ -10642,7 +10642,7 @@
         </is>
       </c>
       <c r="B1021" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1022">
@@ -10652,7 +10652,7 @@
         </is>
       </c>
       <c r="B1022" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03833689902946875</v>
       </c>
     </row>
     <row r="1023">
@@ -10662,7 +10662,7 @@
         </is>
       </c>
       <c r="B1023" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000005</v>
       </c>
     </row>
     <row r="1024">
@@ -10672,7 +10672,7 @@
         </is>
       </c>
       <c r="B1024" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1025">
@@ -10682,7 +10682,7 @@
         </is>
       </c>
       <c r="B1025" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="1026">
@@ -10692,7 +10692,7 @@
         </is>
       </c>
       <c r="B1026" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.0399999999999997</v>
       </c>
     </row>
     <row r="1027">
@@ -10702,7 +10702,7 @@
         </is>
       </c>
       <c r="B1027" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03399445478367274</v>
       </c>
     </row>
     <row r="1028">
@@ -10712,7 +10712,7 @@
         </is>
       </c>
       <c r="B1028" t="n">
-        <v>-0.02896505514147578</v>
+        <v>0.09900331987811303</v>
       </c>
     </row>
     <row r="1029">
@@ -10722,7 +10722,7 @@
         </is>
       </c>
       <c r="B1029" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1030">
@@ -10732,7 +10732,7 @@
         </is>
       </c>
       <c r="B1030" t="n">
-        <v>-0.02804546506665834</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1031">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="B1031" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1032">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="B1032" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1033">
@@ -10762,7 +10762,7 @@
         </is>
       </c>
       <c r="B1033" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1034">
@@ -10772,7 +10772,7 @@
         </is>
       </c>
       <c r="B1034" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1035">
@@ -10782,7 +10782,7 @@
         </is>
       </c>
       <c r="B1035" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1036">
@@ -10792,7 +10792,7 @@
         </is>
       </c>
       <c r="B1036" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1037">
@@ -10802,7 +10802,7 @@
         </is>
       </c>
       <c r="B1037" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1038">
@@ -10812,7 +10812,7 @@
         </is>
       </c>
       <c r="B1038" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1039">
@@ -10822,7 +10822,7 @@
         </is>
       </c>
       <c r="B1039" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1040">
@@ -10832,7 +10832,7 @@
         </is>
       </c>
       <c r="B1040" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1041">
@@ -10842,7 +10842,7 @@
         </is>
       </c>
       <c r="B1041" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1042">
@@ -10852,7 +10852,7 @@
         </is>
       </c>
       <c r="B1042" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1043">
@@ -10862,7 +10862,7 @@
         </is>
       </c>
       <c r="B1043" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1044">
@@ -10872,7 +10872,7 @@
         </is>
       </c>
       <c r="B1044" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1045">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="B1045" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1046">
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="B1046" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1047">
@@ -10902,7 +10902,7 @@
         </is>
       </c>
       <c r="B1047" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1048">
@@ -10912,7 +10912,7 @@
         </is>
       </c>
       <c r="B1048" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1049">
@@ -10922,7 +10922,7 @@
         </is>
       </c>
       <c r="B1049" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1050">
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="B1050" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1051">
@@ -10942,7 +10942,7 @@
         </is>
       </c>
       <c r="B1051" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1052">
@@ -10952,7 +10952,7 @@
         </is>
       </c>
       <c r="B1052" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1053">
@@ -10962,7 +10962,7 @@
         </is>
       </c>
       <c r="B1053" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1054">
@@ -10972,7 +10972,7 @@
         </is>
       </c>
       <c r="B1054" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1055">
@@ -10982,7 +10982,7 @@
         </is>
       </c>
       <c r="B1055" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1056">
@@ -10992,7 +10992,7 @@
         </is>
       </c>
       <c r="B1056" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1057">
@@ -11002,7 +11002,7 @@
         </is>
       </c>
       <c r="B1057" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1058">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="B1058" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1059">
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="B1090" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1091">
@@ -11342,7 +11342,7 @@
         </is>
       </c>
       <c r="B1091" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1092">
@@ -11352,7 +11352,7 @@
         </is>
       </c>
       <c r="B1092" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1093">
@@ -11362,7 +11362,7 @@
         </is>
       </c>
       <c r="B1093" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="1094">
@@ -11372,7 +11372,7 @@
         </is>
       </c>
       <c r="B1094" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1095">
@@ -11382,7 +11382,7 @@
         </is>
       </c>
       <c r="B1095" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1096">
@@ -11672,7 +11672,7 @@
         </is>
       </c>
       <c r="B1124" t="n">
-        <v>0</v>
+        <v>-0.08900331987811304</v>
       </c>
     </row>
     <row r="1125">
@@ -11682,7 +11682,7 @@
         </is>
       </c>
       <c r="B1125" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1126">
@@ -11692,7 +11692,7 @@
         </is>
       </c>
       <c r="B1126" t="n">
-        <v>0</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1127">
@@ -11702,7 +11702,7 @@
         </is>
       </c>
       <c r="B1127" t="n">
-        <v>-1</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1128">
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="B1128" t="n">
-        <v>-1</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="1129">
@@ -12292,7 +12292,7 @@
         </is>
       </c>
       <c r="B1186" t="n">
-        <v>0.6895330379107978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187">
@@ -12302,7 +12302,7 @@
         </is>
       </c>
       <c r="B1187" t="n">
-        <v>0.4668964645583446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="B1188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189">
@@ -12322,7 +12322,7 @@
         </is>
       </c>
       <c r="B1189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190">
@@ -12332,7 +12332,7 @@
         </is>
       </c>
       <c r="B1190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191">
@@ -12342,7 +12342,7 @@
         </is>
       </c>
       <c r="B1191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192">
@@ -12352,7 +12352,7 @@
         </is>
       </c>
       <c r="B1192" t="n">
-        <v>1</v>
+        <v>0.4598863693770782</v>
       </c>
     </row>
     <row r="1193">
@@ -12362,7 +12362,7 @@
         </is>
       </c>
       <c r="B1193" t="n">
-        <v>1</v>
+        <v>0.9018090754475447</v>
       </c>
     </row>
     <row r="1194">
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="B1195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196">
@@ -12412,7 +12412,7 @@
         </is>
       </c>
       <c r="B1198" t="n">
-        <v>0.9809642112702962</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="B1214" t="n">
-        <v>1</v>
+        <v>0.8336899029468713</v>
       </c>
     </row>
     <row r="1215">
@@ -12622,7 +12622,7 @@
         </is>
       </c>
       <c r="B1219" t="n">
-        <v>1</v>
+        <v>0.8798890956734542</v>
       </c>
     </row>
     <row r="1220">
@@ -12632,7 +12632,7 @@
         </is>
       </c>
       <c r="B1220" t="n">
-        <v>0.5414898585634492</v>
+        <v>0.4391160005299433</v>
       </c>
     </row>
     <row r="1221">
@@ -12642,7 +12642,7 @@
         </is>
       </c>
       <c r="B1221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222">
@@ -12652,7 +12652,7 @@
         </is>
       </c>
       <c r="B1222" t="n">
-        <v>0.9441561447616662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223">
@@ -12942,7 +12942,7 @@
         </is>
       </c>
       <c r="B1251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -12952,7 +12952,7 @@
         </is>
       </c>
       <c r="B1252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="B1253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1254">
@@ -12972,7 +12972,7 @@
         </is>
       </c>
       <c r="B1254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255">
@@ -12982,7 +12982,7 @@
         </is>
       </c>
       <c r="B1255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1256">
@@ -12992,7 +12992,7 @@
         </is>
       </c>
       <c r="B1256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1257">
@@ -13002,7 +13002,7 @@
         </is>
       </c>
       <c r="B1257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1258">
@@ -13012,7 +13012,7 @@
         </is>
       </c>
       <c r="B1258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -13022,7 +13022,7 @@
         </is>
       </c>
       <c r="B1259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260">
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="B1260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261">
@@ -13042,7 +13042,7 @@
         </is>
       </c>
       <c r="B1261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262">
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="B1262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -13062,7 +13062,7 @@
         </is>
       </c>
       <c r="B1263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264">
@@ -13072,7 +13072,7 @@
         </is>
       </c>
       <c r="B1264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265">
@@ -13082,7 +13082,7 @@
         </is>
       </c>
       <c r="B1265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="B1266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267">
@@ -13102,7 +13102,7 @@
         </is>
       </c>
       <c r="B1267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268">
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="B1268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269">
@@ -13122,7 +13122,7 @@
         </is>
       </c>
       <c r="B1269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270">
@@ -13132,7 +13132,7 @@
         </is>
       </c>
       <c r="B1270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1271">
@@ -13142,7 +13142,7 @@
         </is>
       </c>
       <c r="B1271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272">
@@ -13152,7 +13152,7 @@
         </is>
       </c>
       <c r="B1272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1273">
@@ -13162,7 +13162,7 @@
         </is>
       </c>
       <c r="B1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -13172,7 +13172,7 @@
         </is>
       </c>
       <c r="B1274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1275">
@@ -13182,7 +13182,7 @@
         </is>
       </c>
       <c r="B1275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1276">
@@ -13192,7 +13192,7 @@
         </is>
       </c>
       <c r="B1276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1277">
@@ -13202,7 +13202,7 @@
         </is>
       </c>
       <c r="B1277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1278">
@@ -13212,7 +13212,7 @@
         </is>
       </c>
       <c r="B1278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1279">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="B1279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1280">
@@ -13252,7 +13252,7 @@
         </is>
       </c>
       <c r="B1282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283">
@@ -13262,7 +13262,7 @@
         </is>
       </c>
       <c r="B1283" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1284">
@@ -13272,7 +13272,7 @@
         </is>
       </c>
       <c r="B1284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285">
@@ -13282,7 +13282,7 @@
         </is>
       </c>
       <c r="B1285" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286">
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="B1286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287">
@@ -13302,7 +13302,7 @@
         </is>
       </c>
       <c r="B1287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288">
@@ -13312,7 +13312,7 @@
         </is>
       </c>
       <c r="B1288" t="n">
-        <v>0</v>
+        <v>0.5401136306229218</v>
       </c>
     </row>
     <row r="1289">
@@ -13322,7 +13322,7 @@
         </is>
       </c>
       <c r="B1289" t="n">
-        <v>0</v>
+        <v>0.0981909245524553</v>
       </c>
     </row>
     <row r="1290">
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="B1291" t="n">
-        <v>0</v>
+        <v>0.6163691382188624</v>
       </c>
     </row>
     <row r="1292">
@@ -13532,7 +13532,7 @@
         </is>
       </c>
       <c r="B1310" t="n">
-        <v>0</v>
+        <v>0.1663100970531287</v>
       </c>
     </row>
     <row r="1311">
@@ -13582,7 +13582,7 @@
         </is>
       </c>
       <c r="B1315" t="n">
-        <v>0</v>
+        <v>0.1201109043265459</v>
       </c>
     </row>
     <row r="1316">
@@ -13592,7 +13592,7 @@
         </is>
       </c>
       <c r="B1316" t="n">
-        <v>0</v>
+        <v>0.5608839994700567</v>
       </c>
     </row>
     <row r="1317">
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="B1317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1318">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="B1318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1319">
@@ -13622,7 +13622,7 @@
         </is>
       </c>
       <c r="B1319" t="n">
-        <v>0.5189400000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1320">
@@ -13682,7 +13682,7 @@
         </is>
       </c>
       <c r="B1325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326">
@@ -13692,7 +13692,7 @@
         </is>
       </c>
       <c r="B1326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327">
@@ -13702,7 +13702,7 @@
         </is>
       </c>
       <c r="B1327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328">
@@ -13712,7 +13712,7 @@
         </is>
       </c>
       <c r="B1328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329">
@@ -13722,7 +13722,7 @@
         </is>
       </c>
       <c r="B1329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -13732,7 +13732,7 @@
         </is>
       </c>
       <c r="B1330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="B1331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332">
@@ -13752,7 +13752,7 @@
         </is>
       </c>
       <c r="B1332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333">
@@ -13762,7 +13762,7 @@
         </is>
       </c>
       <c r="B1333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1334">
@@ -13772,7 +13772,7 @@
         </is>
       </c>
       <c r="B1334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1335">
@@ -13782,7 +13782,7 @@
         </is>
       </c>
       <c r="B1335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1336">
@@ -13792,7 +13792,7 @@
         </is>
       </c>
       <c r="B1336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -13802,7 +13802,7 @@
         </is>
       </c>
       <c r="B1337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -13812,7 +13812,7 @@
         </is>
       </c>
       <c r="B1338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1339">
@@ -13822,7 +13822,7 @@
         </is>
       </c>
       <c r="B1339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -13832,7 +13832,7 @@
         </is>
       </c>
       <c r="B1340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1341">
@@ -13842,7 +13842,7 @@
         </is>
       </c>
       <c r="B1341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1342">
@@ -13852,7 +13852,7 @@
         </is>
       </c>
       <c r="B1342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1343">
@@ -13862,7 +13862,7 @@
         </is>
       </c>
       <c r="B1343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1344">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="B1344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1345">
@@ -13882,7 +13882,7 @@
         </is>
       </c>
       <c r="B1345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1346">
@@ -13892,7 +13892,7 @@
         </is>
       </c>
       <c r="B1346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1347">
@@ -14212,7 +14212,7 @@
         </is>
       </c>
       <c r="B1378" t="n">
-        <v>0.173374057955335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1379">
@@ -14222,7 +14222,7 @@
         </is>
       </c>
       <c r="B1379" t="n">
-        <v>0.5331035354416552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1380">
@@ -14232,7 +14232,7 @@
         </is>
       </c>
       <c r="B1380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381">
@@ -14242,7 +14242,7 @@
         </is>
       </c>
       <c r="B1381" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382">
@@ -14252,7 +14252,7 @@
         </is>
       </c>
       <c r="B1382" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1383">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="B1383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1384">
@@ -14272,7 +14272,7 @@
         </is>
       </c>
       <c r="B1384" t="n">
-        <v>0</v>
+        <v>0.5401136306229216</v>
       </c>
     </row>
     <row r="1385">
@@ -14282,7 +14282,7 @@
         </is>
       </c>
       <c r="B1385" t="n">
-        <v>0</v>
+        <v>0.09819092455245515</v>
       </c>
     </row>
     <row r="1386">
@@ -14302,7 +14302,7 @@
         </is>
       </c>
       <c r="B1387" t="n">
-        <v>0</v>
+        <v>0.4063201106362778</v>
       </c>
     </row>
     <row r="1388">
@@ -14542,7 +14542,7 @@
         </is>
       </c>
       <c r="B1411" t="n">
-        <v>0</v>
+        <v>0.1201109043265459</v>
       </c>
     </row>
     <row r="1412">
@@ -14552,7 +14552,7 @@
         </is>
       </c>
       <c r="B1412" t="n">
-        <v>0</v>
+        <v>0.5608839994700566</v>
       </c>
     </row>
     <row r="1413">
@@ -14562,7 +14562,7 @@
         </is>
       </c>
       <c r="B1413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1414">
@@ -14572,7 +14572,7 @@
         </is>
       </c>
       <c r="B1414" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1415">
@@ -14582,7 +14582,7 @@
         </is>
       </c>
       <c r="B1415" t="n">
-        <v>0.51894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -14592,7 +14592,7 @@
         </is>
       </c>
       <c r="B1416" t="n">
-        <v>0.9892459911016602</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1417">
@@ -15192,7 +15192,7 @@
         </is>
       </c>
       <c r="B1476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1477">
@@ -15202,7 +15202,7 @@
         </is>
       </c>
       <c r="B1477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478">
@@ -15212,7 +15212,7 @@
         </is>
       </c>
       <c r="B1478" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1479">
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="B1479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -15232,7 +15232,7 @@
         </is>
       </c>
       <c r="B1480" t="n">
-        <v>1</v>
+        <v>0.4598863693770784</v>
       </c>
     </row>
     <row r="1481">
@@ -15242,7 +15242,7 @@
         </is>
       </c>
       <c r="B1481" t="n">
-        <v>1</v>
+        <v>0.9018090754475446</v>
       </c>
     </row>
     <row r="1482">
@@ -15262,7 +15262,7 @@
         </is>
       </c>
       <c r="B1483" t="n">
-        <v>0.9311275791151443</v>
+        <v>0.5936798893637222</v>
       </c>
     </row>
     <row r="1484">
@@ -15272,7 +15272,7 @@
         </is>
       </c>
       <c r="B1484" t="n">
-        <v>0.9470593981383866</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1485">
@@ -15282,7 +15282,7 @@
         </is>
       </c>
       <c r="B1485" t="n">
-        <v>0.9075610526087409</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1486">
@@ -15292,7 +15292,7 @@
         </is>
       </c>
       <c r="B1486" t="n">
-        <v>0.946628665334818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1487">
@@ -15302,7 +15302,7 @@
         </is>
       </c>
       <c r="B1487" t="n">
-        <v>0.933714579613155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1488">
@@ -15312,7 +15312,7 @@
         </is>
       </c>
       <c r="B1488" t="n">
-        <v>0.9250860083640831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1489">
@@ -15322,7 +15322,7 @@
         </is>
       </c>
       <c r="B1489" t="n">
-        <v>0.9630860324498243</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1490">
@@ -15332,7 +15332,7 @@
         </is>
       </c>
       <c r="B1490" t="n">
-        <v>0.9205640102564813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1491">
@@ -15342,7 +15342,7 @@
         </is>
       </c>
       <c r="B1491" t="n">
-        <v>0.9500002926787744</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1492">
@@ -15352,7 +15352,7 @@
         </is>
       </c>
       <c r="B1492" t="n">
-        <v>0.9603964619182512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1493">
@@ -15362,7 +15362,7 @@
         </is>
       </c>
       <c r="B1493" t="n">
-        <v>0.9265755585331715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1494">
@@ -15372,7 +15372,7 @@
         </is>
       </c>
       <c r="B1494" t="n">
-        <v>0.9736136528976118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1495">
@@ -15422,7 +15422,7 @@
         </is>
       </c>
       <c r="B1499" t="n">
-        <v>0.9423295242062574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="B1500" t="n">
-        <v>0.9944161490217798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1501">
@@ -15442,7 +15442,7 @@
         </is>
       </c>
       <c r="B1501" t="n">
-        <v>0.9380866559742022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1502">
@@ -15462,7 +15462,7 @@
         </is>
       </c>
       <c r="B1503" t="n">
-        <v>0.9138187383066296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1504">
@@ -15472,7 +15472,7 @@
         </is>
       </c>
       <c r="B1504" t="n">
-        <v>0.988322381385515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1505">
@@ -15482,7 +15482,7 @@
         </is>
       </c>
       <c r="B1505" t="n">
-        <v>0.9380973625130186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1506">
@@ -15492,7 +15492,7 @@
         </is>
       </c>
       <c r="B1506" t="n">
-        <v>0.9668175701209534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1507">
@@ -15502,7 +15502,7 @@
         </is>
       </c>
       <c r="B1507" t="n">
-        <v>0.9898381682381958</v>
+        <v>0.8798890956734542</v>
       </c>
     </row>
     <row r="1508">
@@ -15512,7 +15512,7 @@
         </is>
       </c>
       <c r="B1508" t="n">
-        <v>0.9704301468993074</v>
+        <v>0.4391160005299434</v>
       </c>
     </row>
     <row r="1509">
@@ -15522,7 +15522,7 @@
         </is>
       </c>
       <c r="B1509" t="n">
-        <v>0.9845997473513589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1510">
@@ -15532,7 +15532,7 @@
         </is>
       </c>
       <c r="B1510" t="n">
-        <v>0.5100928767910631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1511">
@@ -16132,7 +16132,7 @@
         </is>
       </c>
       <c r="B1570" t="n">
-        <v>0.02068599113732395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1571">
@@ -16142,7 +16142,7 @@
         </is>
       </c>
       <c r="B1571" t="n">
-        <v>0.01400689393675035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1572">
@@ -16152,7 +16152,7 @@
         </is>
       </c>
       <c r="B1572" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1573">
@@ -16162,7 +16162,7 @@
         </is>
       </c>
       <c r="B1573" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1574">
@@ -16172,7 +16172,7 @@
         </is>
       </c>
       <c r="B1574" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1575">
@@ -16182,7 +16182,7 @@
         </is>
       </c>
       <c r="B1575" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576">
@@ -16192,7 +16192,7 @@
         </is>
       </c>
       <c r="B1576" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.01839545477508315</v>
       </c>
     </row>
     <row r="1577">
@@ -16202,7 +16202,7 @@
         </is>
       </c>
       <c r="B1577" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03607236301790182</v>
       </c>
     </row>
     <row r="1578">
@@ -16212,7 +16212,7 @@
         </is>
       </c>
       <c r="B1578" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1579">
@@ -16222,7 +16222,7 @@
         </is>
       </c>
       <c r="B1579" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1580">
@@ -16232,7 +16232,7 @@
         </is>
       </c>
       <c r="B1580" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03999999999999992</v>
       </c>
     </row>
     <row r="1581">
@@ -16252,7 +16252,7 @@
         </is>
       </c>
       <c r="B1582" t="n">
-        <v>0.02942892633810891</v>
+        <v>0.04000000000000026</v>
       </c>
     </row>
     <row r="1583">
@@ -16262,7 +16262,7 @@
         </is>
       </c>
       <c r="B1583" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1584">
@@ -16282,7 +16282,7 @@
         </is>
       </c>
       <c r="B1585" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1586">
@@ -16292,7 +16292,7 @@
         </is>
       </c>
       <c r="B1586" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1587">
@@ -16302,7 +16302,7 @@
         </is>
       </c>
       <c r="B1587" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1588">
@@ -16312,7 +16312,7 @@
         </is>
       </c>
       <c r="B1588" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1589">
@@ -16322,7 +16322,7 @@
         </is>
       </c>
       <c r="B1589" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1590">
@@ -16332,7 +16332,7 @@
         </is>
       </c>
       <c r="B1590" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000015</v>
       </c>
     </row>
     <row r="1591">
@@ -16342,7 +16342,7 @@
         </is>
       </c>
       <c r="B1591" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1592">
@@ -16352,7 +16352,7 @@
         </is>
       </c>
       <c r="B1592" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1593">
@@ -16362,7 +16362,7 @@
         </is>
       </c>
       <c r="B1593" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1594">
@@ -16372,7 +16372,7 @@
         </is>
       </c>
       <c r="B1594" t="n">
-        <v>0.03000000000000014</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1595">
@@ -16382,7 +16382,7 @@
         </is>
       </c>
       <c r="B1595" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1596">
@@ -16392,7 +16392,7 @@
         </is>
       </c>
       <c r="B1596" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1597">
@@ -16402,7 +16402,7 @@
         </is>
       </c>
       <c r="B1597" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1598">
@@ -16412,7 +16412,7 @@
         </is>
       </c>
       <c r="B1598" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03334759611787488</v>
       </c>
     </row>
     <row r="1599">
@@ -16422,7 +16422,7 @@
         </is>
       </c>
       <c r="B1599" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000005</v>
       </c>
     </row>
     <row r="1600">
@@ -16432,7 +16432,7 @@
         </is>
       </c>
       <c r="B1600" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1601">
@@ -16442,7 +16442,7 @@
         </is>
       </c>
       <c r="B1601" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
     </row>
     <row r="1602">
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="B1602" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.03999999999999981</v>
       </c>
     </row>
     <row r="1603">
@@ -16462,7 +16462,7 @@
         </is>
       </c>
       <c r="B1603" t="n">
-        <v>0.03000000000000003</v>
+        <v>0.0351955638269382</v>
       </c>
     </row>
     <row r="1604">
@@ -16472,7 +16472,7 @@
         </is>
       </c>
       <c r="B1604" t="n">
-        <v>0.01624469575690349</v>
+        <v>0.01317348001589831</v>
       </c>
     </row>
     <row r="1605">
@@ -16482,7 +16482,7 @@
         </is>
       </c>
       <c r="B1605" t="n">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1606">
@@ -16492,7 +16492,7 @@
         </is>
       </c>
       <c r="B1606" t="n">
-        <v>0.02832468434285001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1607">
@@ -16782,7 +16782,7 @@
         </is>
       </c>
       <c r="B1635" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636">
@@ -16792,7 +16792,7 @@
         </is>
       </c>
       <c r="B1636" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1637">
@@ -16802,7 +16802,7 @@
         </is>
       </c>
       <c r="B1637" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638">
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="B1638" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639">
@@ -16822,7 +16822,7 @@
         </is>
       </c>
       <c r="B1639" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1640">
@@ -16832,7 +16832,7 @@
         </is>
       </c>
       <c r="B1640" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1641">
@@ -16842,7 +16842,7 @@
         </is>
       </c>
       <c r="B1641" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1642">
@@ -16852,7 +16852,7 @@
         </is>
       </c>
       <c r="B1642" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1643">
@@ -16862,7 +16862,7 @@
         </is>
       </c>
       <c r="B1643" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1644">
@@ -16872,7 +16872,7 @@
         </is>
       </c>
       <c r="B1644" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1645">
@@ -16882,7 +16882,7 @@
         </is>
       </c>
       <c r="B1645" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1646">
@@ -16892,7 +16892,7 @@
         </is>
       </c>
       <c r="B1646" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1647">
@@ -16902,7 +16902,7 @@
         </is>
       </c>
       <c r="B1647" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1648">
@@ -16912,7 +16912,7 @@
         </is>
       </c>
       <c r="B1648" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1649">
@@ -16922,7 +16922,7 @@
         </is>
       </c>
       <c r="B1649" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1650">
@@ -16932,7 +16932,7 @@
         </is>
       </c>
       <c r="B1650" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1651">
@@ -16942,7 +16942,7 @@
         </is>
       </c>
       <c r="B1651" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1652">
@@ -16952,7 +16952,7 @@
         </is>
       </c>
       <c r="B1652" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1653">
@@ -16962,7 +16962,7 @@
         </is>
       </c>
       <c r="B1653" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1654">
@@ -16972,7 +16972,7 @@
         </is>
       </c>
       <c r="B1654" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1655">
@@ -16982,7 +16982,7 @@
         </is>
       </c>
       <c r="B1655" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1656">
@@ -16992,7 +16992,7 @@
         </is>
       </c>
       <c r="B1656" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1657">
@@ -17002,7 +17002,7 @@
         </is>
       </c>
       <c r="B1657" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1658">
@@ -17012,7 +17012,7 @@
         </is>
       </c>
       <c r="B1658" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1659">
@@ -17022,7 +17022,7 @@
         </is>
       </c>
       <c r="B1659" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1660">
@@ -17032,7 +17032,7 @@
         </is>
       </c>
       <c r="B1660" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1661">
@@ -17042,7 +17042,7 @@
         </is>
       </c>
       <c r="B1661" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1662">
@@ -17052,7 +17052,7 @@
         </is>
       </c>
       <c r="B1662" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1663">
@@ -17062,7 +17062,7 @@
         </is>
       </c>
       <c r="B1663" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1664">
@@ -17072,7 +17072,7 @@
         </is>
       </c>
       <c r="B1664" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1665">
@@ -17082,7 +17082,7 @@
         </is>
       </c>
       <c r="B1665" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1666">
@@ -17092,7 +17092,7 @@
         </is>
       </c>
       <c r="B1666" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1667">
@@ -17102,7 +17102,7 @@
         </is>
       </c>
       <c r="B1667" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1668">
@@ -17112,7 +17112,7 @@
         </is>
       </c>
       <c r="B1668" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1669">
@@ -17122,7 +17122,7 @@
         </is>
       </c>
       <c r="B1669" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1670">
@@ -17132,7 +17132,7 @@
         </is>
       </c>
       <c r="B1670" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1671">
@@ -17142,7 +17142,7 @@
         </is>
       </c>
       <c r="B1671" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1672">
@@ -17152,7 +17152,7 @@
         </is>
       </c>
       <c r="B1672" t="n">
-        <v>0</v>
+        <v>-0.005401136306229218</v>
       </c>
     </row>
     <row r="1673">
@@ -17162,7 +17162,7 @@
         </is>
       </c>
       <c r="B1673" t="n">
-        <v>0</v>
+        <v>-0.0009819092455245534</v>
       </c>
     </row>
     <row r="1674">
@@ -17182,7 +17182,7 @@
         </is>
       </c>
       <c r="B1675" t="n">
-        <v>0</v>
+        <v>-0.006163691382188629</v>
       </c>
     </row>
     <row r="1676">
@@ -17372,7 +17372,7 @@
         </is>
       </c>
       <c r="B1694" t="n">
-        <v>0</v>
+        <v>0.004989302911593865</v>
       </c>
     </row>
     <row r="1695">
@@ -17422,7 +17422,7 @@
         </is>
       </c>
       <c r="B1699" t="n">
-        <v>0</v>
+        <v>-0.001201109043265459</v>
       </c>
     </row>
     <row r="1700">
@@ -17432,7 +17432,7 @@
         </is>
       </c>
       <c r="B1700" t="n">
-        <v>0</v>
+        <v>-0.1121767998940114</v>
       </c>
     </row>
     <row r="1701">
@@ -17442,7 +17442,7 @@
         </is>
       </c>
       <c r="B1701" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1702">
@@ -17452,7 +17452,7 @@
         </is>
       </c>
       <c r="B1702" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1703">
@@ -17462,7 +17462,7 @@
         </is>
       </c>
       <c r="B1703" t="n">
-        <v>-0.0175947</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1704">
@@ -17472,7 +17472,7 @@
         </is>
       </c>
       <c r="B1704" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1705">
@@ -17482,7 +17482,7 @@
         </is>
       </c>
       <c r="B1705" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1706">
@@ -17492,7 +17492,7 @@
         </is>
       </c>
       <c r="B1706" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1707">
@@ -17502,7 +17502,7 @@
         </is>
       </c>
       <c r="B1707" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1708">
@@ -17512,7 +17512,7 @@
         </is>
       </c>
       <c r="B1708" t="n">
-        <v>-0.02</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="1709">
@@ -17522,7 +17522,7 @@
         </is>
       </c>
       <c r="B1709" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1710">
@@ -17532,7 +17532,7 @@
         </is>
       </c>
       <c r="B1710" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711">
@@ -17542,7 +17542,7 @@
         </is>
       </c>
       <c r="B1711" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1712">
@@ -17552,7 +17552,7 @@
         </is>
       </c>
       <c r="B1712" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1713">
@@ -17562,7 +17562,7 @@
         </is>
       </c>
       <c r="B1713" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1714">
@@ -17572,7 +17572,7 @@
         </is>
       </c>
       <c r="B1714" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1715">
@@ -17582,7 +17582,7 @@
         </is>
       </c>
       <c r="B1715" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1716">
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="B1716" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1717">
@@ -17602,7 +17602,7 @@
         </is>
       </c>
       <c r="B1717" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1718">
@@ -17612,7 +17612,7 @@
         </is>
       </c>
       <c r="B1718" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1719">
@@ -17622,7 +17622,7 @@
         </is>
       </c>
       <c r="B1719" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720">
@@ -17632,7 +17632,7 @@
         </is>
       </c>
       <c r="B1720" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1721">
@@ -17642,7 +17642,7 @@
         </is>
       </c>
       <c r="B1721" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1722">
@@ -17652,7 +17652,7 @@
         </is>
       </c>
       <c r="B1722" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1723">
@@ -17662,7 +17662,7 @@
         </is>
       </c>
       <c r="B1723" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1724">
@@ -17672,7 +17672,7 @@
         </is>
       </c>
       <c r="B1724" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1725">
@@ -17682,7 +17682,7 @@
         </is>
       </c>
       <c r="B1725" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1726">
@@ -17692,7 +17692,7 @@
         </is>
       </c>
       <c r="B1726" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1727">
@@ -17702,7 +17702,7 @@
         </is>
       </c>
       <c r="B1727" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1728">
@@ -17712,7 +17712,7 @@
         </is>
       </c>
       <c r="B1728" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1729">
@@ -17722,7 +17722,7 @@
         </is>
       </c>
       <c r="B1729" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1730">
@@ -17732,7 +17732,7 @@
         </is>
       </c>
       <c r="B1730" t="n">
-        <v>-0.02000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731">
@@ -19662,7 +19662,7 @@
         </is>
       </c>
       <c r="B1923" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1924">
@@ -19672,7 +19672,7 @@
         </is>
       </c>
       <c r="B1924" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1925">
@@ -19682,7 +19682,7 @@
         </is>
       </c>
       <c r="B1925" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1926">
@@ -19692,7 +19692,7 @@
         </is>
       </c>
       <c r="B1926" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1927">
@@ -19702,7 +19702,7 @@
         </is>
       </c>
       <c r="B1927" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1928">
@@ -19712,7 +19712,7 @@
         </is>
       </c>
       <c r="B1928" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1929">
@@ -19722,7 +19722,7 @@
         </is>
       </c>
       <c r="B1929" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1930">
@@ -19732,7 +19732,7 @@
         </is>
       </c>
       <c r="B1930" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1931">
@@ -19742,7 +19742,7 @@
         </is>
       </c>
       <c r="B1931" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1932">
@@ -19752,7 +19752,7 @@
         </is>
       </c>
       <c r="B1932" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1933">
@@ -19762,7 +19762,7 @@
         </is>
       </c>
       <c r="B1933" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1934">
@@ -19772,7 +19772,7 @@
         </is>
       </c>
       <c r="B1934" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="1935">
@@ -19782,7 +19782,7 @@
         </is>
       </c>
       <c r="B1935" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1936">
@@ -19792,7 +19792,7 @@
         </is>
       </c>
       <c r="B1936" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1937">
@@ -19802,7 +19802,7 @@
         </is>
       </c>
       <c r="B1937" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1938">
@@ -19812,7 +19812,7 @@
         </is>
       </c>
       <c r="B1938" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1939">
@@ -19822,7 +19822,7 @@
         </is>
       </c>
       <c r="B1939" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1940">
@@ -19832,7 +19832,7 @@
         </is>
       </c>
       <c r="B1940" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1941">
@@ -19842,7 +19842,7 @@
         </is>
       </c>
       <c r="B1941" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1942">
@@ -19852,7 +19852,7 @@
         </is>
       </c>
       <c r="B1942" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1943">
@@ -19862,7 +19862,7 @@
         </is>
       </c>
       <c r="B1943" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1944">
@@ -19872,7 +19872,7 @@
         </is>
       </c>
       <c r="B1944" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1945">
@@ -19882,7 +19882,7 @@
         </is>
       </c>
       <c r="B1945" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1946">
@@ -19892,7 +19892,7 @@
         </is>
       </c>
       <c r="B1946" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1947">
@@ -19902,7 +19902,7 @@
         </is>
       </c>
       <c r="B1947" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1948">
@@ -19912,7 +19912,7 @@
         </is>
       </c>
       <c r="B1948" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1949">
@@ -19922,7 +19922,7 @@
         </is>
       </c>
       <c r="B1949" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1950">
@@ -19932,7 +19932,7 @@
         </is>
       </c>
       <c r="B1950" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.1170329999999999</v>
       </c>
     </row>
     <row r="1951">
@@ -19942,7 +19942,7 @@
         </is>
       </c>
       <c r="B1951" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1952">
@@ -19952,7 +19952,7 @@
         </is>
       </c>
       <c r="B1952" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1953">
@@ -19962,7 +19962,7 @@
         </is>
       </c>
       <c r="B1953" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1954">
@@ -19972,7 +19972,7 @@
         </is>
       </c>
       <c r="B1954" t="n">
-        <v>0.0008668702897766757</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1955">
@@ -19982,7 +19982,7 @@
         </is>
       </c>
       <c r="B1955" t="n">
-        <v>0.002665517677208279</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1956">
@@ -19992,7 +19992,7 @@
         </is>
       </c>
       <c r="B1956" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1957">
@@ -20002,7 +20002,7 @@
         </is>
       </c>
       <c r="B1957" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1958">
@@ -20012,7 +20012,7 @@
         </is>
       </c>
       <c r="B1958" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1959">
@@ -20022,7 +20022,7 @@
         </is>
       </c>
       <c r="B1959" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1960">
@@ -20032,7 +20032,7 @@
         </is>
       </c>
       <c r="B1960" t="n">
-        <v>0</v>
+        <v>0.005401136306229223</v>
       </c>
     </row>
     <row r="1961">
@@ -20042,7 +20042,7 @@
         </is>
       </c>
       <c r="B1961" t="n">
-        <v>0</v>
+        <v>0.0009819092455245551</v>
       </c>
     </row>
     <row r="1962">
@@ -20062,7 +20062,7 @@
         </is>
       </c>
       <c r="B1963" t="n">
-        <v>0</v>
+        <v>0.004063201106362782</v>
       </c>
     </row>
     <row r="1964">
@@ -20302,7 +20302,7 @@
         </is>
       </c>
       <c r="B1987" t="n">
-        <v>0</v>
+        <v>0.001201109043265459</v>
       </c>
     </row>
     <row r="1988">
@@ -20312,7 +20312,7 @@
         </is>
       </c>
       <c r="B1988" t="n">
-        <v>0</v>
+        <v>0.1121767998940113</v>
       </c>
     </row>
     <row r="1989">
@@ -20322,7 +20322,7 @@
         </is>
       </c>
       <c r="B1989" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1990">
@@ -20332,7 +20332,7 @@
         </is>
       </c>
       <c r="B1990" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1991">
@@ -20342,7 +20342,7 @@
         </is>
       </c>
       <c r="B1991" t="n">
-        <v>0.0175947</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1992">
@@ -20352,7 +20352,7 @@
         </is>
       </c>
       <c r="B1992" t="n">
-        <v>0.0199462299555083</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1993">
@@ -20362,7 +20362,7 @@
         </is>
       </c>
       <c r="B1993" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1994">
@@ -20372,7 +20372,7 @@
         </is>
       </c>
       <c r="B1994" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1995">
@@ -20382,7 +20382,7 @@
         </is>
       </c>
       <c r="B1995" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1996">
@@ -20392,7 +20392,7 @@
         </is>
       </c>
       <c r="B1996" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1997">
@@ -20402,7 +20402,7 @@
         </is>
       </c>
       <c r="B1997" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1998">
@@ -20412,7 +20412,7 @@
         </is>
       </c>
       <c r="B1998" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="1999">
@@ -20422,7 +20422,7 @@
         </is>
       </c>
       <c r="B1999" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2000">
@@ -20432,7 +20432,7 @@
         </is>
       </c>
       <c r="B2000" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2001">
@@ -20442,7 +20442,7 @@
         </is>
       </c>
       <c r="B2001" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2002">
@@ -20452,7 +20452,7 @@
         </is>
       </c>
       <c r="B2002" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2003">
@@ -20462,7 +20462,7 @@
         </is>
       </c>
       <c r="B2003" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2004">
@@ -20472,7 +20472,7 @@
         </is>
       </c>
       <c r="B2004" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2005">
@@ -20482,7 +20482,7 @@
         </is>
       </c>
       <c r="B2005" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2006">
@@ -20492,7 +20492,7 @@
         </is>
       </c>
       <c r="B2006" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2007">
@@ -20502,7 +20502,7 @@
         </is>
       </c>
       <c r="B2007" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2008">
@@ -20512,7 +20512,7 @@
         </is>
       </c>
       <c r="B2008" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2009">
@@ -20522,7 +20522,7 @@
         </is>
       </c>
       <c r="B2009" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2010">
@@ -20532,7 +20532,7 @@
         </is>
       </c>
       <c r="B2010" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2011">
@@ -20542,7 +20542,7 @@
         </is>
       </c>
       <c r="B2011" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2012">
@@ -20552,7 +20552,7 @@
         </is>
       </c>
       <c r="B2012" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2013">
@@ -20562,7 +20562,7 @@
         </is>
       </c>
       <c r="B2013" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2014">
@@ -20572,7 +20572,7 @@
         </is>
       </c>
       <c r="B2014" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2015">
@@ -20582,7 +20582,7 @@
         </is>
       </c>
       <c r="B2015" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2016">
@@ -20592,7 +20592,7 @@
         </is>
       </c>
       <c r="B2016" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2017">
@@ -20602,7 +20602,7 @@
         </is>
       </c>
       <c r="B2017" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2018">
@@ -20612,7 +20612,7 @@
         </is>
       </c>
       <c r="B2018" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="2019">
@@ -20952,7 +20952,7 @@
         </is>
       </c>
       <c r="B2052" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2053">
@@ -20962,7 +20962,7 @@
         </is>
       </c>
       <c r="B2053" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2054">
@@ -20972,7 +20972,7 @@
         </is>
       </c>
       <c r="B2054" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2055">
@@ -20982,7 +20982,7 @@
         </is>
       </c>
       <c r="B2055" t="n">
-        <v>-0.03000000000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2056">
@@ -20992,7 +20992,7 @@
         </is>
       </c>
       <c r="B2056" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.01839545477508315</v>
       </c>
     </row>
     <row r="2057">
@@ -21002,7 +21002,7 @@
         </is>
       </c>
       <c r="B2057" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03607236301790182</v>
       </c>
     </row>
     <row r="2058">
@@ -21012,7 +21012,7 @@
         </is>
       </c>
       <c r="B2058" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="2059">
@@ -21022,7 +21022,7 @@
         </is>
       </c>
       <c r="B2059" t="n">
-        <v>-0.02793382737345436</v>
+        <v>0.005936798893637227</v>
       </c>
     </row>
     <row r="2060">
@@ -21032,7 +21032,7 @@
         </is>
       </c>
       <c r="B2060" t="n">
-        <v>-0.02841178194415162</v>
+        <v>-0.03999999999999992</v>
       </c>
     </row>
     <row r="2061">
@@ -21042,7 +21042,7 @@
         </is>
       </c>
       <c r="B2061" t="n">
-        <v>-0.02722683157826225</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="2062">
@@ -21052,7 +21052,7 @@
         </is>
       </c>
       <c r="B2062" t="n">
-        <v>-0.02839885996004457</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="2063">
@@ -21062,7 +21062,7 @@
         </is>
       </c>
       <c r="B2063" t="n">
-        <v>-0.02801143738839467</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2064">
@@ -21072,7 +21072,7 @@
         </is>
       </c>
       <c r="B2064" t="n">
-        <v>-0.02775258025092252</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="2065">
@@ -21082,7 +21082,7 @@
         </is>
       </c>
       <c r="B2065" t="n">
-        <v>-0.02889258097349475</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2066">
@@ -21092,7 +21092,7 @@
         </is>
       </c>
       <c r="B2066" t="n">
-        <v>-0.02761692030769446</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2067">
@@ -21102,7 +21102,7 @@
         </is>
       </c>
       <c r="B2067" t="n">
-        <v>-0.02850000878036326</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2068">
@@ -21112,7 +21112,7 @@
         </is>
       </c>
       <c r="B2068" t="n">
-        <v>-0.02881189385754756</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2069">
@@ -21122,7 +21122,7 @@
         </is>
       </c>
       <c r="B2069" t="n">
-        <v>-0.02779726675599517</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2070">
@@ -21132,7 +21132,7 @@
         </is>
       </c>
       <c r="B2070" t="n">
-        <v>-0.02920840958692838</v>
+        <v>-0.04000000000000015</v>
       </c>
     </row>
     <row r="2071">
@@ -21142,7 +21142,7 @@
         </is>
       </c>
       <c r="B2071" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2072">
@@ -21152,7 +21152,7 @@
         </is>
       </c>
       <c r="B2072" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2073">
@@ -21162,7 +21162,7 @@
         </is>
       </c>
       <c r="B2073" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2074">
@@ -21172,7 +21172,7 @@
         </is>
       </c>
       <c r="B2074" t="n">
-        <v>-0.03000000000000014</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2075">
@@ -21182,7 +21182,7 @@
         </is>
       </c>
       <c r="B2075" t="n">
-        <v>-0.02826988572618775</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2076">
@@ -21192,7 +21192,7 @@
         </is>
       </c>
       <c r="B2076" t="n">
-        <v>-0.02983248447065342</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2077">
@@ -21202,7 +21202,7 @@
         </is>
       </c>
       <c r="B2077" t="n">
-        <v>-0.02814259967922609</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2078">
@@ -21212,7 +21212,7 @@
         </is>
       </c>
       <c r="B2078" t="n">
-        <v>-0.03000000000000003</v>
+        <v>-0.03833689902946875</v>
       </c>
     </row>
     <row r="2079">
@@ -21222,7 +21222,7 @@
         </is>
       </c>
       <c r="B2079" t="n">
-        <v>-0.02741456214919891</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2080">
@@ -21232,7 +21232,7 @@
         </is>
       </c>
       <c r="B2080" t="n">
-        <v>-0.02964967144156547</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2081">
@@ -21242,7 +21242,7 @@
         </is>
       </c>
       <c r="B2081" t="n">
-        <v>-0.02814292087539058</v>
+        <v>-0.04000000000000004</v>
       </c>
     </row>
     <row r="2082">
@@ -21252,7 +21252,7 @@
         </is>
       </c>
       <c r="B2082" t="n">
-        <v>-0.02900452710362863</v>
+        <v>-0.0399999999999997</v>
       </c>
     </row>
     <row r="2083">
@@ -21262,7 +21262,7 @@
         </is>
       </c>
       <c r="B2083" t="n">
-        <v>-0.0296951450471459</v>
+        <v>-0.0351955638269382</v>
       </c>
     </row>
     <row r="2084">
@@ -21272,7 +21272,7 @@
         </is>
       </c>
       <c r="B2084" t="n">
-        <v>-0.02911290440697925</v>
+        <v>-0.0131734800158983</v>
       </c>
     </row>
     <row r="2085">
@@ -21282,7 +21282,7 @@
         </is>
       </c>
       <c r="B2085" t="n">
-        <v>-0.02953799242054079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2086">
@@ -21292,7 +21292,7 @@
         </is>
       </c>
       <c r="B2086" t="n">
-        <v>-0.01530278630373191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087">
@@ -21892,7 +21892,7 @@
         </is>
       </c>
       <c r="B2146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2147">
@@ -21902,7 +21902,7 @@
         </is>
       </c>
       <c r="B2147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2148">
@@ -21912,7 +21912,7 @@
         </is>
       </c>
       <c r="B2148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2149">
@@ -21922,7 +21922,7 @@
         </is>
       </c>
       <c r="B2149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2150">
@@ -21932,7 +21932,7 @@
         </is>
       </c>
       <c r="B2150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2151">
@@ -21942,7 +21942,7 @@
         </is>
       </c>
       <c r="B2151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2152">
@@ -21952,7 +21952,7 @@
         </is>
       </c>
       <c r="B2152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2153">
@@ -21962,7 +21962,7 @@
         </is>
       </c>
       <c r="B2153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2154">
@@ -21972,7 +21972,7 @@
         </is>
       </c>
       <c r="B2154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2155">
@@ -21982,7 +21982,7 @@
         </is>
       </c>
       <c r="B2155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2156">
@@ -21992,7 +21992,7 @@
         </is>
       </c>
       <c r="B2156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2157">
@@ -22002,7 +22002,7 @@
         </is>
       </c>
       <c r="B2157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2158">
@@ -22012,7 +22012,7 @@
         </is>
       </c>
       <c r="B2158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2159">
@@ -22022,7 +22022,7 @@
         </is>
       </c>
       <c r="B2159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2160">
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="B2160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2161">
@@ -22042,7 +22042,7 @@
         </is>
       </c>
       <c r="B2161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2162">
@@ -22052,7 +22052,7 @@
         </is>
       </c>
       <c r="B2162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2163">
@@ -22062,7 +22062,7 @@
         </is>
       </c>
       <c r="B2163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2164">
@@ -22072,7 +22072,7 @@
         </is>
       </c>
       <c r="B2164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2165">
@@ -22082,7 +22082,7 @@
         </is>
       </c>
       <c r="B2165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2166">
@@ -22092,7 +22092,7 @@
         </is>
       </c>
       <c r="B2166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2167">
@@ -22102,7 +22102,7 @@
         </is>
       </c>
       <c r="B2167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2168">
@@ -22112,7 +22112,7 @@
         </is>
       </c>
       <c r="B2168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2169">
@@ -22122,7 +22122,7 @@
         </is>
       </c>
       <c r="B2169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2170">
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="B2170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2171">
@@ -22142,7 +22142,7 @@
         </is>
       </c>
       <c r="B2171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2172">
@@ -22152,7 +22152,7 @@
         </is>
       </c>
       <c r="B2172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2173">
@@ -22162,7 +22162,7 @@
         </is>
       </c>
       <c r="B2173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2174">
@@ -22172,7 +22172,7 @@
         </is>
       </c>
       <c r="B2174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2175">
@@ -22182,7 +22182,7 @@
         </is>
       </c>
       <c r="B2175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2176">
@@ -22192,7 +22192,7 @@
         </is>
       </c>
       <c r="B2176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2177">
@@ -22202,7 +22202,7 @@
         </is>
       </c>
       <c r="B2177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2178">
@@ -22212,7 +22212,7 @@
         </is>
       </c>
       <c r="B2178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2179">
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="B2179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2180">
@@ -22232,7 +22232,7 @@
         </is>
       </c>
       <c r="B2180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2181">
@@ -22242,7 +22242,7 @@
         </is>
       </c>
       <c r="B2181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2182">
@@ -22252,7 +22252,7 @@
         </is>
       </c>
       <c r="B2182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2183">
@@ -22542,7 +22542,7 @@
         </is>
       </c>
       <c r="B2211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2212">
@@ -22552,7 +22552,7 @@
         </is>
       </c>
       <c r="B2212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2213">
@@ -22562,7 +22562,7 @@
         </is>
       </c>
       <c r="B2213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2214">
@@ -22572,7 +22572,7 @@
         </is>
       </c>
       <c r="B2214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2215">
@@ -22582,7 +22582,7 @@
         </is>
       </c>
       <c r="B2215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2216">
@@ -22592,7 +22592,7 @@
         </is>
       </c>
       <c r="B2216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2217">
@@ -22602,7 +22602,7 @@
         </is>
       </c>
       <c r="B2217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2218">
@@ -22612,7 +22612,7 @@
         </is>
       </c>
       <c r="B2218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2219">
@@ -22622,7 +22622,7 @@
         </is>
       </c>
       <c r="B2219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2220">
@@ -22632,7 +22632,7 @@
         </is>
       </c>
       <c r="B2220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2221">
@@ -22642,7 +22642,7 @@
         </is>
       </c>
       <c r="B2221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2222">
@@ -22652,7 +22652,7 @@
         </is>
       </c>
       <c r="B2222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2223">
@@ -22662,7 +22662,7 @@
         </is>
       </c>
       <c r="B2223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2224">
@@ -22672,7 +22672,7 @@
         </is>
       </c>
       <c r="B2224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2225">
@@ -22682,7 +22682,7 @@
         </is>
       </c>
       <c r="B2225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2226">
@@ -22692,7 +22692,7 @@
         </is>
       </c>
       <c r="B2226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2227">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B2227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2228">
@@ -22712,7 +22712,7 @@
         </is>
       </c>
       <c r="B2228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2229">
@@ -22722,7 +22722,7 @@
         </is>
       </c>
       <c r="B2229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2230">
@@ -22732,7 +22732,7 @@
         </is>
       </c>
       <c r="B2230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2231">
@@ -22742,7 +22742,7 @@
         </is>
       </c>
       <c r="B2231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2232">
@@ -22752,7 +22752,7 @@
         </is>
       </c>
       <c r="B2232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2233">
@@ -22762,7 +22762,7 @@
         </is>
       </c>
       <c r="B2233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2234">
@@ -22772,7 +22772,7 @@
         </is>
       </c>
       <c r="B2234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2235">
@@ -22782,7 +22782,7 @@
         </is>
       </c>
       <c r="B2235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2236">
@@ -22792,7 +22792,7 @@
         </is>
       </c>
       <c r="B2236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2237">
@@ -22802,7 +22802,7 @@
         </is>
       </c>
       <c r="B2237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2238">
@@ -22812,7 +22812,7 @@
         </is>
       </c>
       <c r="B2238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2239">
@@ -22822,7 +22822,7 @@
         </is>
       </c>
       <c r="B2239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2240">
@@ -22832,7 +22832,7 @@
         </is>
       </c>
       <c r="B2240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2241">
@@ -22842,7 +22842,7 @@
         </is>
       </c>
       <c r="B2241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2242">
@@ -22852,7 +22852,7 @@
         </is>
       </c>
       <c r="B2242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2243">
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B2243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2244">
@@ -23222,7 +23222,7 @@
         </is>
       </c>
       <c r="B2279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2280">
@@ -23232,7 +23232,7 @@
         </is>
       </c>
       <c r="B2280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2281">
@@ -23242,7 +23242,7 @@
         </is>
       </c>
       <c r="B2281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2282">
@@ -23252,7 +23252,7 @@
         </is>
       </c>
       <c r="B2282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2283">
@@ -23262,7 +23262,7 @@
         </is>
       </c>
       <c r="B2283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2284">
@@ -23272,7 +23272,7 @@
         </is>
       </c>
       <c r="B2284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2285">
@@ -23282,7 +23282,7 @@
         </is>
       </c>
       <c r="B2285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2286">
@@ -23292,7 +23292,7 @@
         </is>
       </c>
       <c r="B2286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2287">
@@ -23302,7 +23302,7 @@
         </is>
       </c>
       <c r="B2287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2288">
@@ -23312,7 +23312,7 @@
         </is>
       </c>
       <c r="B2288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2289">
@@ -23322,7 +23322,7 @@
         </is>
       </c>
       <c r="B2289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2290">
@@ -23332,7 +23332,7 @@
         </is>
       </c>
       <c r="B2290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2291">
@@ -23342,7 +23342,7 @@
         </is>
       </c>
       <c r="B2291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2292">
@@ -23352,7 +23352,7 @@
         </is>
       </c>
       <c r="B2292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2293">
@@ -23362,7 +23362,7 @@
         </is>
       </c>
       <c r="B2293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2294">
@@ -23372,7 +23372,7 @@
         </is>
       </c>
       <c r="B2294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2295">
@@ -23382,7 +23382,7 @@
         </is>
       </c>
       <c r="B2295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2296">
@@ -23392,7 +23392,7 @@
         </is>
       </c>
       <c r="B2296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2297">
@@ -23402,7 +23402,7 @@
         </is>
       </c>
       <c r="B2297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2298">
@@ -23412,7 +23412,7 @@
         </is>
       </c>
       <c r="B2298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2299">
@@ -23422,7 +23422,7 @@
         </is>
       </c>
       <c r="B2299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300">
@@ -23432,7 +23432,7 @@
         </is>
       </c>
       <c r="B2300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2301">
@@ -23442,7 +23442,7 @@
         </is>
       </c>
       <c r="B2301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2302">
@@ -23452,7 +23452,7 @@
         </is>
       </c>
       <c r="B2302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2303">
@@ -23462,7 +23462,7 @@
         </is>
       </c>
       <c r="B2303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2304">
@@ -23472,7 +23472,7 @@
         </is>
       </c>
       <c r="B2304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2305">
@@ -23482,7 +23482,7 @@
         </is>
       </c>
       <c r="B2305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2306">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B2306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
